--- a/teaching/traditional_assets/database/data/israel/israel_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/israel/israel_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:AQ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0476</v>
+        <v>0.0521</v>
       </c>
       <c r="E2">
-        <v>-0.197</v>
+        <v>0.0109</v>
       </c>
       <c r="G2">
-        <v>0.2074862947591269</v>
+        <v>0.2129107652539178</v>
       </c>
       <c r="H2">
-        <v>0.2051385900866454</v>
+        <v>0.2113824115461253</v>
       </c>
       <c r="I2">
-        <v>0.2271192395159679</v>
+        <v>0.2985545802143357</v>
       </c>
       <c r="J2">
-        <v>0.1763997441115817</v>
+        <v>0.24881172216839</v>
       </c>
       <c r="K2">
-        <v>60.972</v>
+        <v>129.417</v>
       </c>
       <c r="L2">
-        <v>0.08371008730440943</v>
+        <v>0.139390381819161</v>
       </c>
       <c r="M2">
-        <v>41.422</v>
+        <v>34.868</v>
       </c>
       <c r="N2">
-        <v>0.02517427267368011</v>
+        <v>0.0143939894319683</v>
       </c>
       <c r="O2">
-        <v>0.6793610181722758</v>
+        <v>0.2694236460434101</v>
       </c>
       <c r="P2">
-        <v>41.422</v>
+        <v>30.858</v>
       </c>
       <c r="Q2">
-        <v>0.02517427267368011</v>
+        <v>0.01273860634081902</v>
       </c>
       <c r="R2">
-        <v>0.6793610181722758</v>
+        <v>0.2384385358955933</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>4.01</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.1150051623264885</v>
       </c>
       <c r="U2">
-        <v>295.617</v>
+        <v>375.261</v>
       </c>
       <c r="V2">
-        <v>0.1796616040986745</v>
+        <v>0.1549128963011889</v>
       </c>
       <c r="W2">
-        <v>0.1041942604856512</v>
+        <v>0.05117605845260734</v>
       </c>
       <c r="X2">
-        <v>0.0615133906433119</v>
+        <v>0.04411785606599918</v>
       </c>
       <c r="Y2">
-        <v>0.04268086984233932</v>
+        <v>0.007058202386608169</v>
       </c>
       <c r="Z2">
-        <v>0.6504081015403386</v>
+        <v>0.5908613612498806</v>
       </c>
       <c r="AA2">
-        <v>0.09984871406959152</v>
+        <v>0.07591023128122373</v>
       </c>
       <c r="AB2">
-        <v>0.0519846892155278</v>
+        <v>0.03990522337261859</v>
       </c>
       <c r="AC2">
-        <v>0.04701241604486141</v>
+        <v>0.03471118732675905</v>
       </c>
       <c r="AD2">
-        <v>911.52</v>
+        <v>949.668</v>
       </c>
       <c r="AE2">
-        <v>2.374661972574812</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>913.8946619725748</v>
+        <v>949.668</v>
       </c>
       <c r="AG2">
-        <v>618.2776619725748</v>
+        <v>574.407</v>
       </c>
       <c r="AH2">
-        <v>0.357087093049795</v>
+        <v>0.2816277726309196</v>
       </c>
       <c r="AI2">
-        <v>0.4468023131789636</v>
+        <v>0.4215242496686549</v>
       </c>
       <c r="AJ2">
-        <v>0.2731285204928883</v>
+        <v>0.1916730039672224</v>
       </c>
       <c r="AK2">
-        <v>0.3533429809847399</v>
+        <v>0.3059136369034717</v>
       </c>
       <c r="AL2">
-        <v>30.205</v>
+        <v>29.6</v>
       </c>
       <c r="AM2">
-        <v>26.93</v>
+        <v>26.221</v>
       </c>
       <c r="AN2">
-        <v>5.078020980150749</v>
+        <v>3.935142750590478</v>
       </c>
       <c r="AO2">
-        <v>5.474689620923688</v>
+        <v>9.364628378378379</v>
       </c>
       <c r="AP2">
-        <v>3.444386232946385</v>
+        <v>2.380172378071521</v>
       </c>
       <c r="AQ2">
-        <v>6.140475306349796</v>
+        <v>10.57141222684108</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MRP Investments Ltd (TASE:MRP)</t>
+          <t>Xenia Venture Capital Ltd (TASE:XENA)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,28 +725,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0857</v>
-      </c>
-      <c r="E3">
-        <v>-0.272</v>
+        <v>0.7090000000000001</v>
       </c>
       <c r="G3">
-        <v>0.6354581673306773</v>
+        <v>-0.01705882352941177</v>
       </c>
       <c r="H3">
-        <v>0.6354581673306773</v>
+        <v>-0.01705882352941177</v>
       </c>
       <c r="I3">
-        <v>0.5418326693227092</v>
+        <v>0.9826989619377162</v>
       </c>
       <c r="J3">
-        <v>0.3430248929095648</v>
+        <v>0.832728839232362</v>
       </c>
       <c r="K3">
-        <v>0.843</v>
+        <v>21.2</v>
       </c>
       <c r="L3">
-        <v>0.1679282868525896</v>
+        <v>0.7335640138408305</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -770,58 +767,67 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>5.05</v>
+        <v>1.24</v>
       </c>
       <c r="V3">
-        <v>0.3796992481203007</v>
+        <v>0.03604651162790698</v>
+      </c>
+      <c r="W3">
+        <v>1.11578947368421</v>
       </c>
       <c r="X3">
-        <v>0.1597210635722445</v>
+        <v>0.03936919305795226</v>
+      </c>
+      <c r="Y3">
+        <v>1.076420280626258</v>
+      </c>
+      <c r="Z3">
+        <v>1.653318077803204</v>
+      </c>
+      <c r="AA3">
+        <v>1.376765643810942</v>
       </c>
       <c r="AB3">
-        <v>0.0573801011731111</v>
+        <v>0.03913017282692377</v>
+      </c>
+      <c r="AC3">
+        <v>1.337635470984018</v>
       </c>
       <c r="AD3">
-        <v>57.7</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>57.7</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="AG3">
-        <v>52.65000000000001</v>
+        <v>-0.672</v>
       </c>
       <c r="AH3">
-        <v>0.8126760563380282</v>
+        <v>0.0162434225577671</v>
       </c>
       <c r="AI3">
-        <v>0.7167701863354038</v>
+        <v>0.01366435719784449</v>
       </c>
       <c r="AJ3">
-        <v>0.7983320697498105</v>
+        <v>-0.01992409867172676</v>
       </c>
       <c r="AK3">
-        <v>0.6978131212723658</v>
+        <v>-0.01666336044435628</v>
       </c>
       <c r="AL3">
-        <v>4.93</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>4.93</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>20.53380782918149</v>
-      </c>
-      <c r="AO3">
-        <v>0.5517241379310346</v>
+        <v>0.02</v>
       </c>
       <c r="AP3">
-        <v>18.73665480427047</v>
-      </c>
-      <c r="AQ3">
-        <v>0.5517241379310346</v>
+        <v>-0.02366197183098592</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Generation Capital Ltd (TASE:GNRS)</t>
+          <t>Y.D. More Investments Ltd (TASE:MRIN)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -841,40 +847,40 @@
         </is>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="I4">
-        <v>0.7451923076923077</v>
+        <v>0.1615131578947369</v>
       </c>
       <c r="J4">
-        <v>0.5769917582417582</v>
+        <v>0.1089766523559654</v>
       </c>
       <c r="K4">
-        <v>10.8</v>
+        <v>6.58</v>
       </c>
       <c r="L4">
-        <v>0.5192307692307693</v>
+        <v>0.1082236842105263</v>
       </c>
       <c r="M4">
-        <v>1.06</v>
+        <v>8.48</v>
       </c>
       <c r="N4">
-        <v>0.004411152725759467</v>
+        <v>0.03406990759341101</v>
       </c>
       <c r="O4">
-        <v>0.09814814814814815</v>
+        <v>1.288753799392097</v>
       </c>
       <c r="P4">
-        <v>1.06</v>
+        <v>8.48</v>
       </c>
       <c r="Q4">
-        <v>0.004411152725759467</v>
+        <v>0.03406990759341101</v>
       </c>
       <c r="R4">
-        <v>0.09814814814814815</v>
+        <v>1.288753799392097</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -883,49 +889,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>117.9</v>
+        <v>31.9</v>
       </c>
       <c r="V4">
-        <v>0.4906367041198502</v>
+        <v>0.1281639212535155</v>
+      </c>
+      <c r="W4">
+        <v>0.3518716577540107</v>
       </c>
       <c r="X4">
-        <v>0.05157419919816474</v>
+        <v>0.04187592800015125</v>
+      </c>
+      <c r="Y4">
+        <v>0.3099957297538595</v>
+      </c>
+      <c r="Z4">
+        <v>4.794952681388012</v>
+      </c>
+      <c r="AA4">
+        <v>0.5225378914229258</v>
       </c>
       <c r="AB4">
-        <v>0.05157419919816474</v>
+        <v>0.03994671241239268</v>
+      </c>
+      <c r="AC4">
+        <v>0.4825911790105332</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>31.4</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>31.4</v>
       </c>
       <c r="AG4">
-        <v>-117.9</v>
+        <v>-0.5</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.1120228326792722</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.596958174904943</v>
       </c>
       <c r="AJ4">
-        <v>-0.9632352941176471</v>
+        <v>-0.002012882447665056</v>
       </c>
       <c r="AK4">
-        <v>-0.8397435897435898</v>
+        <v>-0.02415458937198068</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.324</v>
       </c>
       <c r="AM4">
-        <v>-0.039</v>
+        <v>0.239</v>
+      </c>
+      <c r="AN4">
+        <v>3.019230769230769</v>
+      </c>
+      <c r="AO4">
+        <v>30.30864197530864</v>
+      </c>
+      <c r="AP4">
+        <v>-0.04807692307692307</v>
       </c>
       <c r="AQ4">
-        <v>-397.4358974358975</v>
+        <v>41.08786610878661</v>
       </c>
     </row>
     <row r="5">
@@ -945,40 +975,40 @@
         </is>
       </c>
       <c r="G5">
-        <v>0.1250673854447439</v>
+        <v>0.1818550020251114</v>
       </c>
       <c r="H5">
-        <v>0.1250673854447439</v>
+        <v>0.1818550020251114</v>
       </c>
       <c r="I5">
-        <v>0.1762803234501348</v>
+        <v>0.2389631429728635</v>
       </c>
       <c r="J5">
-        <v>0.1082526818502505</v>
+        <v>0.153289186617039</v>
       </c>
       <c r="K5">
-        <v>18.3</v>
+        <v>36.4</v>
       </c>
       <c r="L5">
-        <v>0.0986522911051213</v>
+        <v>0.14742810854597</v>
       </c>
       <c r="M5">
-        <v>11.5</v>
+        <v>16.9</v>
       </c>
       <c r="N5">
-        <v>0.01939946018893388</v>
+        <v>0.01686458437281708</v>
       </c>
       <c r="O5">
-        <v>0.628415300546448</v>
+        <v>0.4642857142857142</v>
       </c>
       <c r="P5">
-        <v>11.5</v>
+        <v>16.9</v>
       </c>
       <c r="Q5">
-        <v>0.01939946018893388</v>
+        <v>0.01686458437281708</v>
       </c>
       <c r="R5">
-        <v>0.628415300546448</v>
+        <v>0.4642857142857142</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -987,58 +1017,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>16.7</v>
+        <v>25.6</v>
       </c>
       <c r="V5">
-        <v>0.02817139001349528</v>
+        <v>0.02554635265941523</v>
+      </c>
+      <c r="W5">
+        <v>0.6076794657762938</v>
       </c>
       <c r="X5">
-        <v>0.05390385268904752</v>
+        <v>0.04047921226809711</v>
+      </c>
+      <c r="Y5">
+        <v>0.5672002535081967</v>
+      </c>
+      <c r="Z5">
+        <v>2.504056795131846</v>
+      </c>
+      <c r="AA5">
+        <v>0.3838448293686301</v>
       </c>
       <c r="AB5">
-        <v>0.05218479381715908</v>
+        <v>0.03951248847840764</v>
+      </c>
+      <c r="AC5">
+        <v>0.3443323408902224</v>
       </c>
       <c r="AD5">
-        <v>55.4</v>
+        <v>65.2</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>55.4</v>
+        <v>65.2</v>
       </c>
       <c r="AG5">
-        <v>38.7</v>
+        <v>39.6</v>
       </c>
       <c r="AH5">
-        <v>0.08546744831842025</v>
+        <v>0.0610887285674131</v>
       </c>
       <c r="AI5">
-        <v>0.4804856895056375</v>
+        <v>0.4572230014025245</v>
       </c>
       <c r="AJ5">
-        <v>0.06128266033254157</v>
+        <v>0.03801478352692714</v>
       </c>
       <c r="AK5">
-        <v>0.3924949290060852</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="AL5">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="AM5">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="AN5">
-        <v>1.551820728291316</v>
+        <v>1.038216560509554</v>
       </c>
       <c r="AO5">
-        <v>20.56603773584906</v>
+        <v>31.38297872340426</v>
       </c>
       <c r="AP5">
-        <v>1.084033613445378</v>
+        <v>0.6305732484076434</v>
       </c>
       <c r="AQ5">
-        <v>20.56603773584906</v>
+        <v>31.38297872340426</v>
       </c>
     </row>
     <row r="6">
@@ -1049,7 +1094,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Y.D. More Investments Ltd (TASE:MRIN)</t>
+          <t>Generation Capital Ltd (TASE:GNRS)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1058,40 +1103,40 @@
         </is>
       </c>
       <c r="G6">
-        <v>0.3227091633466135</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.3227091633466135</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2629482071713147</v>
+        <v>0.8835403726708073</v>
       </c>
       <c r="J6">
-        <v>0.1474532638676065</v>
+        <v>0.6797660965794767</v>
       </c>
       <c r="K6">
-        <v>7.66</v>
+        <v>43.8</v>
       </c>
       <c r="L6">
-        <v>0.1525896414342629</v>
+        <v>0.6801242236024844</v>
       </c>
       <c r="M6">
-        <v>8.220000000000001</v>
+        <v>1.65</v>
       </c>
       <c r="N6">
-        <v>0.07293700088731145</v>
+        <v>0.005004549590536852</v>
       </c>
       <c r="O6">
-        <v>1.073107049608355</v>
+        <v>0.03767123287671233</v>
       </c>
       <c r="P6">
-        <v>8.220000000000001</v>
+        <v>1.65</v>
       </c>
       <c r="Q6">
-        <v>0.07293700088731145</v>
+        <v>0.005004549590536852</v>
       </c>
       <c r="R6">
-        <v>1.073107049608355</v>
+        <v>0.03767123287671233</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1100,73 +1145,67 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>6.8</v>
+        <v>65.5</v>
       </c>
       <c r="V6">
-        <v>0.06033717834960071</v>
+        <v>0.1986654534425235</v>
       </c>
       <c r="W6">
-        <v>0.4208791208791209</v>
+        <v>0.1695702671312427</v>
       </c>
       <c r="X6">
-        <v>0.05174672753923322</v>
+        <v>0.0425351552429603</v>
       </c>
       <c r="Y6">
-        <v>0.3691323933398877</v>
+        <v>0.1270351118882824</v>
       </c>
       <c r="Z6">
-        <v>3.635047067342505</v>
+        <v>0.4586894586894587</v>
       </c>
       <c r="AA6">
-        <v>0.5359995543920235</v>
+        <v>0.3118015428754866</v>
       </c>
       <c r="AB6">
-        <v>0.05160319266335097</v>
+        <v>0.03945374263985966</v>
       </c>
       <c r="AC6">
-        <v>0.4843963617286726</v>
+        <v>0.2723478002356269</v>
       </c>
       <c r="AD6">
-        <v>0.78</v>
+        <v>51.1</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.78</v>
+        <v>51.1</v>
       </c>
       <c r="AG6">
-        <v>-6.02</v>
+        <v>-14.4</v>
       </c>
       <c r="AH6">
-        <v>0.006873457878040183</v>
+        <v>0.1341911764705882</v>
       </c>
       <c r="AI6">
-        <v>0.04004106776180699</v>
+        <v>0.1286829513976328</v>
       </c>
       <c r="AJ6">
-        <v>-0.05643044619422571</v>
+        <v>-0.04567078972407231</v>
       </c>
       <c r="AK6">
-        <v>-0.4747634069400631</v>
+        <v>-0.04342581423401688</v>
       </c>
       <c r="AL6">
-        <v>0.097</v>
+        <v>0.879</v>
       </c>
       <c r="AM6">
-        <v>0.059</v>
-      </c>
-      <c r="AN6">
-        <v>0.05777777777777778</v>
+        <v>0.729</v>
       </c>
       <c r="AO6">
-        <v>136.0824742268041</v>
-      </c>
-      <c r="AP6">
-        <v>-0.4459259259259259</v>
+        <v>64.73265073947668</v>
       </c>
       <c r="AQ6">
-        <v>223.728813559322</v>
+        <v>78.05212620027434</v>
       </c>
     </row>
     <row r="7">
@@ -1186,28 +1225,28 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0476</v>
+        <v>0.377</v>
       </c>
       <c r="E7">
-        <v>-0.009130000000000001</v>
+        <v>0.4379999999999999</v>
       </c>
       <c r="G7">
-        <v>0.3308053691275168</v>
+        <v>0.3191905354919053</v>
       </c>
       <c r="H7">
-        <v>0.3271812080536913</v>
+        <v>0.315068493150685</v>
       </c>
       <c r="I7">
-        <v>0.3355704697986577</v>
+        <v>0.352428393524284</v>
       </c>
       <c r="J7">
-        <v>0.3289910263177739</v>
+        <v>0.3348069738480697</v>
       </c>
       <c r="K7">
-        <v>4.48</v>
+        <v>6.49</v>
       </c>
       <c r="L7">
-        <v>0.07516778523489934</v>
+        <v>0.08082191780821918</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1231,73 +1270,73 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>11</v>
+        <v>21.5</v>
       </c>
       <c r="V7">
-        <v>0.1307966706302021</v>
+        <v>0.2304394426580922</v>
       </c>
       <c r="W7">
-        <v>0.1051643192488263</v>
+        <v>0.1380851063829787</v>
       </c>
       <c r="X7">
-        <v>0.06823247620293739</v>
+        <v>0.05349829863459704</v>
       </c>
       <c r="Y7">
-        <v>0.03693184304588891</v>
+        <v>0.08458680774838168</v>
       </c>
       <c r="Z7">
-        <v>1.050961029800741</v>
+        <v>0.8971064685509998</v>
       </c>
       <c r="AA7">
-        <v>0.3457567478141302</v>
+        <v>0.3003575019550888</v>
       </c>
       <c r="AB7">
-        <v>0.05326387542062329</v>
+        <v>0.0423011528109606</v>
       </c>
       <c r="AC7">
-        <v>0.292492872393507</v>
+        <v>0.2580563491441282</v>
       </c>
       <c r="AD7">
-        <v>56.2</v>
+        <v>59.2</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>56.2</v>
+        <v>59.2</v>
       </c>
       <c r="AG7">
-        <v>45.2</v>
+        <v>37.7</v>
       </c>
       <c r="AH7">
-        <v>0.4005702066999287</v>
+        <v>0.3881967213114754</v>
       </c>
       <c r="AI7">
-        <v>0.4135393671817513</v>
+        <v>0.3959866220735786</v>
       </c>
       <c r="AJ7">
-        <v>0.3495746326372776</v>
+        <v>0.2877862595419848</v>
       </c>
       <c r="AK7">
-        <v>0.3618895116092875</v>
+        <v>0.29453125</v>
       </c>
       <c r="AL7">
-        <v>3.36</v>
+        <v>3.95</v>
       </c>
       <c r="AM7">
-        <v>3.36</v>
+        <v>3.95</v>
       </c>
       <c r="AN7">
-        <v>2.601851851851852</v>
+        <v>1.947368421052632</v>
       </c>
       <c r="AO7">
-        <v>5.952380952380953</v>
+        <v>7.164556962025316</v>
       </c>
       <c r="AP7">
-        <v>2.092592592592593</v>
+        <v>1.240131578947369</v>
       </c>
       <c r="AQ7">
-        <v>5.952380952380953</v>
+        <v>7.164556962025316</v>
       </c>
     </row>
     <row r="8">
@@ -1308,7 +1347,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Analyst I.M.S. Investment Management Services Ltd (TASE:ANLT)</t>
+          <t>Capital Point Ltd. (TASE:CPTP)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1317,121 +1356,112 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0533</v>
-      </c>
-      <c r="E8">
-        <v>0.09880000000000001</v>
+        <v>-0.14</v>
       </c>
       <c r="G8">
-        <v>0.3247588424437299</v>
+        <v>0.4398058252427184</v>
       </c>
       <c r="H8">
-        <v>0.3247588424437299</v>
+        <v>0.4398058252427184</v>
       </c>
       <c r="I8">
-        <v>0.2385852090032154</v>
+        <v>0.7611650485436893</v>
       </c>
       <c r="J8">
-        <v>0.1215540756769936</v>
+        <v>0.7611650485436893</v>
       </c>
       <c r="K8">
-        <v>4.3</v>
+        <v>-2.54</v>
       </c>
       <c r="L8">
-        <v>0.1382636655948553</v>
+        <v>-0.2466019417475728</v>
       </c>
       <c r="M8">
-        <v>5.08</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.07481590574374079</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>1.181395348837209</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>5.08</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.07481590574374079</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>1.181395348837209</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
-        <v>10.5</v>
+        <v>14.8</v>
       </c>
       <c r="V8">
-        <v>0.1546391752577319</v>
+        <v>0.8087431693989071</v>
       </c>
       <c r="W8">
-        <v>0.1152815013404826</v>
+        <v>-0.05893271461716938</v>
       </c>
       <c r="X8">
-        <v>0.05426159148624331</v>
+        <v>0.04570055688903805</v>
       </c>
       <c r="Y8">
-        <v>0.06101990985423927</v>
+        <v>-0.1046332715062074</v>
       </c>
       <c r="Z8">
-        <v>1.285123966942149</v>
+        <v>0.239034578788582</v>
       </c>
       <c r="AA8">
-        <v>0.1562120559320042</v>
+        <v>0.1819447667672314</v>
       </c>
       <c r="AB8">
-        <v>0.0519846892155278</v>
+        <v>0.03977285341578727</v>
       </c>
       <c r="AC8">
-        <v>0.1042273667164764</v>
+        <v>0.1421719133514441</v>
       </c>
       <c r="AD8">
-        <v>7.32</v>
+        <v>5.37</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>7.32</v>
+        <v>5.37</v>
       </c>
       <c r="AG8">
-        <v>-3.18</v>
+        <v>-9.43</v>
       </c>
       <c r="AH8">
-        <v>0.0973145440042542</v>
+        <v>0.2268694550063371</v>
       </c>
       <c r="AI8">
-        <v>0.1496320523303352</v>
+        <v>0.1136027078485297</v>
       </c>
       <c r="AJ8">
-        <v>-0.04913473423980222</v>
+        <v>-1.063134160090192</v>
       </c>
       <c r="AK8">
-        <v>-0.08276939094221758</v>
+        <v>-0.290421927933477</v>
       </c>
       <c r="AL8">
-        <v>0.309</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>0.265</v>
+        <v>-0.182</v>
       </c>
       <c r="AN8">
-        <v>0.8883495145631068</v>
-      </c>
-      <c r="AO8">
-        <v>24.01294498381877</v>
+        <v>0.672090112640801</v>
       </c>
       <c r="AP8">
-        <v>-0.3859223300970873</v>
+        <v>-1.180225281602002</v>
       </c>
       <c r="AQ8">
-        <v>28</v>
+        <v>-43.07692307692308</v>
       </c>
     </row>
     <row r="9">
@@ -1442,7 +1472,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>E.N. Shoham Business Ltd (TASE:SHOM)</t>
+          <t>TechnoPlus Ventures Ltd. (TASE:TNPV)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1450,116 +1480,119 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D9">
+        <v>0.00229</v>
+      </c>
+      <c r="E9">
+        <v>0.142</v>
+      </c>
       <c r="G9">
-        <v>0.5192592592592592</v>
+        <v>0.6645569620253164</v>
       </c>
       <c r="H9">
-        <v>0.5192592592592592</v>
+        <v>0.6645569620253164</v>
       </c>
       <c r="I9">
-        <v>0.7851851851851852</v>
+        <v>0.6329113924050632</v>
       </c>
       <c r="J9">
-        <v>0.5737891737891738</v>
+        <v>0.6329113924050632</v>
       </c>
       <c r="K9">
-        <v>4.55</v>
+        <v>0.604</v>
       </c>
       <c r="L9">
-        <v>0.337037037037037</v>
+        <v>0.3822784810126582</v>
       </c>
       <c r="M9">
-        <v>0.862</v>
+        <v>0.21</v>
       </c>
       <c r="N9">
-        <v>0.01227920227920228</v>
+        <v>0.01875</v>
       </c>
       <c r="O9">
-        <v>0.1894505494505495</v>
+        <v>0.347682119205298</v>
       </c>
       <c r="P9">
-        <v>0.862</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.01227920227920228</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>0.1894505494505495</v>
+        <v>-0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>17.8</v>
+        <v>1.37</v>
       </c>
       <c r="V9">
-        <v>0.2535612535612536</v>
+        <v>0.1223214285714286</v>
       </c>
       <c r="W9">
-        <v>0.4374999999999999</v>
+        <v>0.05864077669902912</v>
       </c>
       <c r="X9">
-        <v>0.08332028359137363</v>
+        <v>0.04125754165498308</v>
       </c>
       <c r="Y9">
-        <v>0.3541797164086263</v>
+        <v>0.01738323504404604</v>
       </c>
       <c r="Z9">
-        <v>0.2714713748516962</v>
+        <v>0.1924482338611449</v>
       </c>
       <c r="AA9">
-        <v>0.1557673358835659</v>
+        <v>0.1218026796589525</v>
       </c>
       <c r="AB9">
-        <v>0.05393701289572912</v>
+        <v>0.03976041748015863</v>
       </c>
       <c r="AC9">
-        <v>0.1018303229878367</v>
+        <v>0.08204226217879386</v>
       </c>
       <c r="AD9">
-        <v>89.40000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>89.40000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="AG9">
-        <v>71.60000000000001</v>
+        <v>-0.26</v>
       </c>
       <c r="AH9">
-        <v>0.5601503759398496</v>
+        <v>0.09017059301380993</v>
       </c>
       <c r="AI9">
-        <v>0.8331780055917987</v>
+        <v>0.09398814563928876</v>
       </c>
       <c r="AJ9">
-        <v>0.5049365303244006</v>
+        <v>-0.02376599634369287</v>
       </c>
       <c r="AK9">
-        <v>0.8</v>
+        <v>-0.02490421455938698</v>
       </c>
       <c r="AL9">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>1.53</v>
+        <v>-0.051</v>
       </c>
       <c r="AN9">
-        <v>8.433962264150944</v>
-      </c>
-      <c r="AO9">
-        <v>6.928104575163398</v>
+        <v>1.11</v>
       </c>
       <c r="AP9">
-        <v>6.754716981132076</v>
+        <v>-0.26</v>
       </c>
       <c r="AQ9">
-        <v>6.928104575163398</v>
+        <v>-19.6078431372549</v>
       </c>
     </row>
     <row r="10">
@@ -1570,7 +1603,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Xenia Venture Capital Ltd (TASE:XENA)</t>
+          <t>E.N. Shoham Business Ltd (TASE:SHOM)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1578,26 +1611,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D10">
-        <v>0.247</v>
-      </c>
       <c r="G10">
-        <v>0.7417840375586855</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="H10">
-        <v>0.7417840375586855</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="I10">
-        <v>0.7699530516431925</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="J10">
-        <v>0.7699530516431925</v>
+        <v>0.5214919735599622</v>
       </c>
       <c r="K10">
-        <v>1.97</v>
+        <v>5.21</v>
       </c>
       <c r="L10">
-        <v>0.9248826291079812</v>
+        <v>0.3473333333333333</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1621,73 +1651,73 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>2.69</v>
+        <v>9.5</v>
       </c>
       <c r="V10">
-        <v>0.1502793296089386</v>
+        <v>0.09433962264150943</v>
       </c>
       <c r="W10">
-        <v>0.1331081081081081</v>
+        <v>0.2910614525139665</v>
       </c>
       <c r="X10">
-        <v>0.053203579983507</v>
+        <v>0.05579241655921684</v>
       </c>
       <c r="Y10">
-        <v>0.07990452812460111</v>
+        <v>0.2352690359547496</v>
       </c>
       <c r="Z10">
-        <v>0.1386628474708678</v>
+        <v>0.1675977653631285</v>
       </c>
       <c r="AA10">
-        <v>0.1067638825597292</v>
+        <v>0.08740088942345735</v>
       </c>
       <c r="AB10">
-        <v>0.05154954621672792</v>
+        <v>0.04260283070316324</v>
       </c>
       <c r="AC10">
-        <v>0.05521433634300127</v>
+        <v>0.0447980587202941</v>
       </c>
       <c r="AD10">
-        <v>1.17</v>
+        <v>74</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>1.17</v>
+        <v>74</v>
       </c>
       <c r="AG10">
-        <v>-1.52</v>
+        <v>64.5</v>
       </c>
       <c r="AH10">
-        <v>0.06135291033036182</v>
+        <v>0.4235832856325129</v>
       </c>
       <c r="AI10">
-        <v>0.05800694100148735</v>
+        <v>0.751269035532995</v>
       </c>
       <c r="AJ10">
-        <v>-0.0927960927960928</v>
+        <v>0.3904358353510896</v>
       </c>
       <c r="AK10">
-        <v>-0.08695652173913043</v>
+        <v>0.7247191011235955</v>
       </c>
       <c r="AL10">
-        <v>0.002</v>
+        <v>1.89</v>
       </c>
       <c r="AM10">
-        <v>0.002</v>
+        <v>1.89</v>
       </c>
       <c r="AN10">
-        <v>0.7134146341463414</v>
+        <v>6.91588785046729</v>
       </c>
       <c r="AO10">
-        <v>819.9999999999999</v>
+        <v>5.608465608465608</v>
       </c>
       <c r="AP10">
-        <v>-0.926829268292683</v>
+        <v>6.028037383177571</v>
       </c>
       <c r="AQ10">
-        <v>819.9999999999999</v>
+        <v>5.608465608465608</v>
       </c>
     </row>
     <row r="11">
@@ -1698,7 +1728,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Capital Point Ltd. (TASE:CPTP)</t>
+          <t>Analyst I.M.S. Investment Management Services Ltd (TASE:ANLT)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1707,25 +1737,28 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.07139999999999999</v>
+        <v>0.0521</v>
+      </c>
+      <c r="E11">
+        <v>-0.382</v>
       </c>
       <c r="G11">
-        <v>0.4307178631051753</v>
+        <v>0.2425249169435216</v>
       </c>
       <c r="H11">
-        <v>0.4307178631051753</v>
+        <v>0.2425249169435216</v>
       </c>
       <c r="I11">
-        <v>0.66110183639399</v>
+        <v>0.1644518272425249</v>
       </c>
       <c r="J11">
-        <v>0.66110183639399</v>
+        <v>0.08222591362126246</v>
       </c>
       <c r="K11">
-        <v>-1.21</v>
+        <v>0.283</v>
       </c>
       <c r="L11">
-        <v>-0.2020033388981636</v>
+        <v>0.009401993355481727</v>
       </c>
       <c r="M11">
         <v>-0</v>
@@ -1734,7 +1767,7 @@
         <v>-0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P11">
         <v>-0</v>
@@ -1743,79 +1776,79 @@
         <v>-0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>6.03</v>
+        <v>13.5</v>
       </c>
       <c r="V11">
-        <v>0.4276595744680851</v>
+        <v>0.2033132530120482</v>
       </c>
       <c r="W11">
-        <v>-0.02800925925925926</v>
+        <v>0.006802884615384614</v>
       </c>
       <c r="X11">
-        <v>0.0622172745856238</v>
+        <v>0.04137092010489497</v>
       </c>
       <c r="Y11">
-        <v>-0.09022653384488306</v>
+        <v>-0.03456803548951036</v>
       </c>
       <c r="Z11">
-        <v>0.1510337871911246</v>
+        <v>0.7834461218115565</v>
       </c>
       <c r="AA11">
-        <v>0.09984871406959152</v>
+        <v>0.0644195731389901</v>
       </c>
       <c r="AB11">
-        <v>0.05283629802473011</v>
+        <v>0.03979525720576609</v>
       </c>
       <c r="AC11">
-        <v>0.04701241604486141</v>
+        <v>0.02462431593322401</v>
       </c>
       <c r="AD11">
-        <v>6.02</v>
+        <v>6.91</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>6.02</v>
+        <v>6.91</v>
       </c>
       <c r="AG11">
-        <v>-0.01000000000000068</v>
+        <v>-6.59</v>
       </c>
       <c r="AH11">
-        <v>0.2992047713717694</v>
+        <v>0.09425726367480562</v>
       </c>
       <c r="AI11">
-        <v>0.122557003257329</v>
+        <v>0.1368045931498713</v>
       </c>
       <c r="AJ11">
-        <v>-0.0007097232079489479</v>
+        <v>-0.1101822437719445</v>
       </c>
       <c r="AK11">
-        <v>-0.000232072406590872</v>
+        <v>-0.1780599837881653</v>
       </c>
       <c r="AL11">
-        <v>0.173</v>
+        <v>0.291</v>
       </c>
       <c r="AM11">
-        <v>0.173</v>
+        <v>0.278</v>
       </c>
       <c r="AN11">
-        <v>1.52020202020202</v>
+        <v>1.197573656845754</v>
       </c>
       <c r="AO11">
-        <v>22.89017341040462</v>
+        <v>17.01030927835052</v>
       </c>
       <c r="AP11">
-        <v>-0.002525252525252696</v>
+        <v>-1.1421143847487</v>
       </c>
       <c r="AQ11">
-        <v>22.89017341040462</v>
+        <v>17.80575539568346</v>
       </c>
     </row>
     <row r="12">
@@ -1835,121 +1868,121 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.0352</v>
+        <v>0.0409</v>
       </c>
       <c r="E12">
-        <v>0.0793</v>
+        <v>-0.0431</v>
       </c>
       <c r="G12">
-        <v>0.2657023220403502</v>
+        <v>0.2867132867132867</v>
       </c>
       <c r="H12">
-        <v>0.2657023220403502</v>
+        <v>0.2867132867132867</v>
       </c>
       <c r="I12">
-        <v>0.2504758279406167</v>
+        <v>0.2557968347442032</v>
       </c>
       <c r="J12">
-        <v>0.1626619494390828</v>
+        <v>0.1518428699394813</v>
       </c>
       <c r="K12">
-        <v>23.6</v>
+        <v>21.3</v>
       </c>
       <c r="L12">
-        <v>0.08983631518842787</v>
+        <v>0.07839528892160472</v>
       </c>
       <c r="M12">
-        <v>14.7</v>
+        <v>6.72</v>
       </c>
       <c r="N12">
-        <v>0.06295503211991435</v>
+        <v>0.02331714087439278</v>
       </c>
       <c r="O12">
-        <v>0.6228813559322033</v>
+        <v>0.3154929577464788</v>
       </c>
       <c r="P12">
-        <v>14.7</v>
+        <v>2.92</v>
       </c>
       <c r="Q12">
-        <v>0.06295503211991435</v>
+        <v>0.01013185287994448</v>
       </c>
       <c r="R12">
-        <v>0.6228813559322033</v>
+        <v>0.1370892018779343</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>0.5654761904761905</v>
       </c>
       <c r="U12">
-        <v>68.09999999999999</v>
+        <v>160.1</v>
       </c>
       <c r="V12">
-        <v>0.2916488222698073</v>
+        <v>0.5555170020818876</v>
       </c>
       <c r="W12">
-        <v>0.1041942604856512</v>
+        <v>0.08637469586374696</v>
       </c>
       <c r="X12">
-        <v>0.1022418313325361</v>
+        <v>0.07728378036901616</v>
       </c>
       <c r="Y12">
-        <v>0.001952429153115109</v>
+        <v>0.009090915494730803</v>
       </c>
       <c r="Z12">
-        <v>0.4716337522441651</v>
+        <v>0.4160159240545092</v>
       </c>
       <c r="AA12">
-        <v>0.07671686556130532</v>
+        <v>0.06316905184896199</v>
       </c>
       <c r="AB12">
-        <v>0.05130487993383073</v>
+        <v>0.04432976515494658</v>
       </c>
       <c r="AC12">
-        <v>0.02541198562747458</v>
+        <v>0.01883928669401541</v>
       </c>
       <c r="AD12">
-        <v>474.6</v>
+        <v>482.7</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>474.6</v>
+        <v>482.7</v>
       </c>
       <c r="AG12">
-        <v>406.5</v>
+        <v>322.6</v>
       </c>
       <c r="AH12">
-        <v>0.6702443157746081</v>
+        <v>0.6261512517836295</v>
       </c>
       <c r="AI12">
-        <v>0.6087737301180093</v>
+        <v>0.5790547024952016</v>
       </c>
       <c r="AJ12">
-        <v>0.63515625</v>
+        <v>0.5281597904387689</v>
       </c>
       <c r="AK12">
-        <v>0.5713281799016163</v>
+        <v>0.4789903489235338</v>
       </c>
       <c r="AL12">
-        <v>12.6</v>
+        <v>13.7</v>
       </c>
       <c r="AM12">
-        <v>10.01</v>
+        <v>11.07</v>
       </c>
       <c r="AN12">
-        <v>5.576968272620447</v>
+        <v>6.09469696969697</v>
       </c>
       <c r="AO12">
-        <v>5.222222222222222</v>
+        <v>5.072992700729928</v>
       </c>
       <c r="AP12">
-        <v>4.776733254994125</v>
+        <v>4.073232323232324</v>
       </c>
       <c r="AQ12">
-        <v>6.573426573426573</v>
+        <v>6.278229448961156</v>
       </c>
     </row>
     <row r="13">
@@ -1960,7 +1993,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TechnoPlus Ventures Ltd. (TASE:TNPV)</t>
+          <t>Halman Aldubi Investment House Ltd (TASE:HAIN)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1969,28 +2002,28 @@
         </is>
       </c>
       <c r="D13">
-        <v>-0.245</v>
+        <v>0.107</v>
       </c>
       <c r="E13">
-        <v>-0.299</v>
+        <v>0.0109</v>
       </c>
       <c r="G13">
-        <v>0.2162162162162162</v>
+        <v>0.09896480331262941</v>
       </c>
       <c r="H13">
-        <v>0.2162162162162162</v>
+        <v>0.09896480331262941</v>
       </c>
       <c r="I13">
-        <v>0.3960047003525265</v>
+        <v>0.136231884057971</v>
       </c>
       <c r="J13">
-        <v>0.3960047003525265</v>
+        <v>0.08442028985507248</v>
       </c>
       <c r="K13">
-        <v>0.179</v>
+        <v>2.12</v>
       </c>
       <c r="L13">
-        <v>0.2103407755581669</v>
+        <v>0.04389233954451346</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -2014,73 +2047,73 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>3.1</v>
+        <v>12.7</v>
       </c>
       <c r="V13">
-        <v>0.4881889763779528</v>
+        <v>0.1662303664921466</v>
       </c>
       <c r="W13">
-        <v>0.02442019099590723</v>
+        <v>0.04371134020618557</v>
       </c>
       <c r="X13">
-        <v>0.05553914639759981</v>
+        <v>0.05111126864711756</v>
       </c>
       <c r="Y13">
-        <v>-0.03111895540169258</v>
+        <v>-0.007399928440931985</v>
       </c>
       <c r="Z13">
-        <v>0.1048287755604829</v>
+        <v>0.575</v>
       </c>
       <c r="AA13">
-        <v>0.04151268785415127</v>
+        <v>0.04854166666666667</v>
       </c>
       <c r="AB13">
-        <v>0.0521530523568929</v>
+        <v>0.04194525288011096</v>
       </c>
       <c r="AC13">
-        <v>-0.01064036450274163</v>
+        <v>0.006596413786555712</v>
       </c>
       <c r="AD13">
-        <v>1.01</v>
+        <v>40.5</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>1.01</v>
+        <v>40.5</v>
       </c>
       <c r="AG13">
-        <v>-2.09</v>
+        <v>27.8</v>
       </c>
       <c r="AH13">
-        <v>0.1372282608695652</v>
+        <v>0.3464499572284003</v>
       </c>
       <c r="AI13">
-        <v>0.08930150309460654</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="AJ13">
-        <v>-0.4906103286384976</v>
+        <v>0.2667946257197697</v>
       </c>
       <c r="AK13">
-        <v>-0.2545676004872107</v>
+        <v>0.3462017434620174</v>
       </c>
       <c r="AL13">
-        <v>0.102</v>
+        <v>1.95</v>
       </c>
       <c r="AM13">
-        <v>0.102</v>
+        <v>1.95</v>
       </c>
       <c r="AN13">
-        <v>2.988165680473373</v>
+        <v>4.775943396226415</v>
       </c>
       <c r="AO13">
-        <v>3.303921568627451</v>
+        <v>3.374358974358974</v>
       </c>
       <c r="AP13">
-        <v>-6.183431952662721</v>
+        <v>3.278301886792453</v>
       </c>
       <c r="AQ13">
-        <v>3.303921568627451</v>
+        <v>3.374358974358974</v>
       </c>
     </row>
     <row r="14">
@@ -2091,7 +2124,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Eldav Investments Ltd. (TASE:ELDAV)</t>
+          <t>Ybox Real Estate Ltd. (TASE:YBOX)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2099,26 +2132,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="E14">
-        <v>-0.349</v>
-      </c>
       <c r="G14">
-        <v>0.09297650130548303</v>
+        <v>0.08215384615384615</v>
       </c>
       <c r="H14">
-        <v>0.0885117493472585</v>
+        <v>0.08215384615384615</v>
       </c>
       <c r="I14">
-        <v>0.05352480417754569</v>
+        <v>0.09076923076923077</v>
       </c>
       <c r="J14">
-        <v>0.02676240208877284</v>
+        <v>0.09076923076923077</v>
       </c>
       <c r="K14">
-        <v>0.313</v>
+        <v>0.6</v>
       </c>
       <c r="L14">
-        <v>0.008172323759791123</v>
+        <v>0.01846153846153846</v>
       </c>
       <c r="M14">
         <v>-0</v>
@@ -2142,73 +2172,73 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>2.68</v>
+        <v>3.3</v>
       </c>
       <c r="V14">
-        <v>0.08617363344051447</v>
+        <v>0.07783018867924528</v>
       </c>
       <c r="W14">
-        <v>0.0122265625</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="X14">
-        <v>0.0615133906433119</v>
+        <v>0.09043255450646653</v>
       </c>
       <c r="Y14">
-        <v>-0.04928682814331191</v>
+        <v>-0.07925937014892463</v>
       </c>
       <c r="Z14">
-        <v>1.03906673901248</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="AA14">
-        <v>0.02780792186652197</v>
+        <v>0.02161172161172161</v>
       </c>
       <c r="AB14">
-        <v>0.05145965668486478</v>
+        <v>0.04489376270361688</v>
       </c>
       <c r="AC14">
-        <v>-0.02365173481834281</v>
+        <v>-0.02328204109189527</v>
       </c>
       <c r="AD14">
-        <v>12.4</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>12.4</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AG14">
-        <v>9.720000000000001</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="AH14">
-        <v>0.2850574712643678</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="AI14">
-        <v>0.3187660668380463</v>
+        <v>0.6146907216494846</v>
       </c>
       <c r="AJ14">
-        <v>0.2381185693287604</v>
+        <v>0.6847583643122678</v>
       </c>
       <c r="AK14">
-        <v>0.2683600220872446</v>
+        <v>0.6063199473337723</v>
       </c>
       <c r="AL14">
-        <v>0.383</v>
+        <v>2.33</v>
       </c>
       <c r="AM14">
-        <v>0.061</v>
+        <v>2.18</v>
       </c>
       <c r="AN14">
-        <v>4.092409240924093</v>
+        <v>30.47923322683706</v>
       </c>
       <c r="AO14">
-        <v>5.352480417754569</v>
+        <v>1.266094420600858</v>
       </c>
       <c r="AP14">
-        <v>3.207920792079209</v>
+        <v>29.42492012779553</v>
       </c>
       <c r="AQ14">
-        <v>33.60655737704918</v>
+        <v>1.353211009174312</v>
       </c>
     </row>
     <row r="15">
@@ -2219,7 +2249,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ybox Real Estate Ltd. (TASE:YBOX)</t>
+          <t>The Trendlines Group Ltd. (Catalist:42T)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2227,23 +2257,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D15">
+        <v>0.0718</v>
+      </c>
       <c r="G15">
-        <v>-0.1369230769230769</v>
+        <v>0.2984126984126984</v>
       </c>
       <c r="H15">
-        <v>-0.1369230769230769</v>
+        <v>0.1819291819291819</v>
       </c>
       <c r="I15">
-        <v>0.1623076923076923</v>
+        <v>-0.04224664224664225</v>
       </c>
       <c r="J15">
-        <v>0.08115384615384615</v>
+        <v>-0.04224664224664225</v>
       </c>
       <c r="K15">
-        <v>-2.33</v>
+        <v>-2.62</v>
       </c>
       <c r="L15">
-        <v>-0.1792307692307692</v>
+        <v>-0.3199023199023199</v>
       </c>
       <c r="M15">
         <v>-0</v>
@@ -2267,73 +2300,73 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>2.5</v>
+        <v>7.7</v>
       </c>
       <c r="V15">
-        <v>0.06544502617801047</v>
+        <v>0.1412844036697248</v>
       </c>
       <c r="W15">
-        <v>-0.05406032482598608</v>
+        <v>-0.03111638954869359</v>
       </c>
       <c r="X15">
-        <v>0.1072383295001191</v>
+        <v>0.04159677266666777</v>
       </c>
       <c r="Y15">
-        <v>-0.1612986543261052</v>
+        <v>-0.07271316221536135</v>
       </c>
       <c r="Z15">
-        <v>0.1106759747999319</v>
+        <v>0.100012211503236</v>
       </c>
       <c r="AA15">
-        <v>0.008981781031840627</v>
+        <v>-0.00422518011967273</v>
       </c>
       <c r="AB15">
-        <v>0.05650859870010731</v>
+        <v>0.03986373433284449</v>
       </c>
       <c r="AC15">
-        <v>-0.04752681766826668</v>
+        <v>-0.04408891445251722</v>
       </c>
       <c r="AD15">
-        <v>85.3</v>
+        <v>6.21</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>85.3</v>
+        <v>6.21</v>
       </c>
       <c r="AG15">
-        <v>82.8</v>
+        <v>-1.49</v>
       </c>
       <c r="AH15">
-        <v>0.6906882591093118</v>
+        <v>0.1022895733816505</v>
       </c>
       <c r="AI15">
-        <v>0.5822525597269624</v>
+        <v>0.06081676623249437</v>
       </c>
       <c r="AJ15">
-        <v>0.684297520661157</v>
+        <v>-0.02810790416902472</v>
       </c>
       <c r="AK15">
-        <v>0.575</v>
+        <v>-0.01578222645906154</v>
       </c>
       <c r="AL15">
-        <v>2.57</v>
+        <v>0.112</v>
       </c>
       <c r="AM15">
-        <v>2.57</v>
+        <v>0.112</v>
       </c>
       <c r="AN15">
-        <v>39.49074074074073</v>
+        <v>41.95945945945946</v>
       </c>
       <c r="AO15">
-        <v>0.8210116731517509</v>
+        <v>-3.089285714285714</v>
       </c>
       <c r="AP15">
-        <v>38.33333333333333</v>
+        <v>-10.06756756756757</v>
       </c>
       <c r="AQ15">
-        <v>0.8210116731517509</v>
+        <v>-3.089285714285714</v>
       </c>
     </row>
     <row r="16">
@@ -2344,7 +2377,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Vision Sigma Ltd. (TASE:VISN)</t>
+          <t>Eldav Investments Ltd. (TASE:ELDAV)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2353,28 +2386,25 @@
         </is>
       </c>
       <c r="D16">
-        <v>-0.231</v>
-      </c>
-      <c r="E16">
-        <v>-0.197</v>
+        <v>0.0329</v>
       </c>
       <c r="G16">
-        <v>-0.4816831683168317</v>
+        <v>-0.01475460122699386</v>
       </c>
       <c r="H16">
-        <v>-0.4816831683168317</v>
+        <v>-0.01886503067484662</v>
       </c>
       <c r="I16">
-        <v>0.07227722772277227</v>
+        <v>-0.09693251533742331</v>
       </c>
       <c r="J16">
-        <v>0.0543042904290429</v>
+        <v>-0.09693251533742331</v>
       </c>
       <c r="K16">
-        <v>1.13</v>
+        <v>-2.99</v>
       </c>
       <c r="L16">
-        <v>0.5594059405940593</v>
+        <v>-0.09171779141104294</v>
       </c>
       <c r="M16">
         <v>-0</v>
@@ -2383,7 +2413,7 @@
         <v>-0</v>
       </c>
       <c r="O16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>-0</v>
@@ -2392,76 +2422,79 @@
         <v>-0</v>
       </c>
       <c r="R16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0.215</v>
+        <v>0.751</v>
       </c>
       <c r="V16">
-        <v>0.01387096774193548</v>
+        <v>0.03323008849557522</v>
       </c>
       <c r="W16">
-        <v>0.04264150943396226</v>
+        <v>-0.1136882129277567</v>
       </c>
       <c r="X16">
-        <v>0.0740899325759851</v>
+        <v>0.05629039061174147</v>
       </c>
       <c r="Y16">
-        <v>-0.03144842314202284</v>
+        <v>-0.1699786035394981</v>
       </c>
       <c r="Z16">
-        <v>0.04943710230053842</v>
+        <v>0.9050527484730705</v>
       </c>
       <c r="AA16">
-        <v>0.002684646761298743</v>
+        <v>-0.08772903942254302</v>
       </c>
       <c r="AB16">
-        <v>0.05138350376186164</v>
+        <v>0.04266376202406924</v>
       </c>
       <c r="AC16">
-        <v>-0.0486988570005629</v>
+        <v>-0.1303928014466122</v>
       </c>
       <c r="AD16">
-        <v>14</v>
+        <v>17.1</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>14</v>
+        <v>17.1</v>
       </c>
       <c r="AG16">
-        <v>13.785</v>
+        <v>16.349</v>
       </c>
       <c r="AH16">
-        <v>0.4745762711864407</v>
+        <v>0.4307304785894207</v>
       </c>
       <c r="AI16">
-        <v>0.3333333333333333</v>
+        <v>0.4150485436893204</v>
       </c>
       <c r="AJ16">
-        <v>0.4707187980194639</v>
+        <v>0.4197540373308686</v>
       </c>
       <c r="AK16">
-        <v>0.3299030752662439</v>
+        <v>0.4041879898143341</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AM16">
-        <v>-0.242</v>
+        <v>1.522</v>
       </c>
       <c r="AN16">
-        <v>42.42424242424242</v>
+        <v>-8.104265402843604</v>
+      </c>
+      <c r="AO16">
+        <v>-1.926829268292683</v>
       </c>
       <c r="AP16">
-        <v>41.77272727272727</v>
+        <v>-7.748341232227489</v>
       </c>
       <c r="AQ16">
-        <v>-0.6033057851239669</v>
+        <v>-2.076215505913273</v>
       </c>
     </row>
     <row r="17">
@@ -2472,7 +2505,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Halman Aldubi Investment House Ltd (TASE:HAIN)</t>
+          <t>Vision Sigma Ltd. (TASE:VISN)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2480,116 +2513,116 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D17">
-        <v>0.0774</v>
-      </c>
       <c r="G17">
-        <v>0.0447867298578199</v>
+        <v>-1.08974358974359</v>
       </c>
       <c r="H17">
-        <v>0.0447867298578199</v>
+        <v>-1.08974358974359</v>
       </c>
       <c r="I17">
-        <v>0.0001184834123222749</v>
+        <v>1.506410256410256</v>
       </c>
       <c r="J17">
-        <v>0.0001184834123222749</v>
+        <v>1.506410256410256</v>
       </c>
       <c r="K17">
-        <v>-2.1</v>
+        <v>-6.47</v>
       </c>
       <c r="L17">
-        <v>-0.04976303317535545</v>
+        <v>2.073717948717948</v>
       </c>
       <c r="M17">
-        <v>-0</v>
+        <v>0.908</v>
       </c>
       <c r="N17">
-        <v>-0</v>
+        <v>0.04365384615384615</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>-0.1403400309119011</v>
       </c>
       <c r="P17">
-        <v>-0</v>
+        <v>0.908</v>
       </c>
       <c r="Q17">
-        <v>-0</v>
+        <v>0.04365384615384615</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>-0.1403400309119011</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
       <c r="U17">
-        <v>10.5</v>
+        <v>4.39</v>
       </c>
       <c r="V17">
-        <v>0.2192066805845511</v>
+        <v>0.2110576923076923</v>
       </c>
       <c r="W17">
-        <v>-0.05303030303030303</v>
+        <v>-0.2310714285714286</v>
       </c>
       <c r="X17">
-        <v>0.07468086145676298</v>
+        <v>0.05317090572255675</v>
       </c>
       <c r="Y17">
-        <v>-0.127711164487066</v>
+        <v>-0.2842423342939853</v>
       </c>
       <c r="Z17">
-        <v>0.6422157966823923</v>
+        <v>-0.0746679430417614</v>
       </c>
       <c r="AA17">
-        <v>7.609191903819814e-05</v>
+        <v>-0.1124805552231662</v>
       </c>
       <c r="AB17">
-        <v>0.05138090645519167</v>
+        <v>0.04225505355794758</v>
       </c>
       <c r="AC17">
-        <v>-0.05130481453615347</v>
+        <v>-0.1547356087811138</v>
       </c>
       <c r="AD17">
-        <v>44.4</v>
+        <v>12.9</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>44.4</v>
+        <v>12.9</v>
       </c>
       <c r="AG17">
-        <v>33.9</v>
+        <v>8.510000000000002</v>
       </c>
       <c r="AH17">
-        <v>0.4810400866738895</v>
+        <v>0.3827893175074184</v>
       </c>
       <c r="AI17">
-        <v>0.4728434504792332</v>
+        <v>0.3696275071633238</v>
       </c>
       <c r="AJ17">
-        <v>0.4144254278728606</v>
+        <v>0.2903445922893211</v>
       </c>
       <c r="AK17">
-        <v>0.4064748201438849</v>
+        <v>0.2789249426417568</v>
       </c>
       <c r="AL17">
-        <v>2.1</v>
+        <v>0.653</v>
       </c>
       <c r="AM17">
-        <v>2.1</v>
+        <v>0.653</v>
       </c>
       <c r="AN17">
-        <v>21.55339805825243</v>
+        <v>-2.847682119205298</v>
       </c>
       <c r="AO17">
-        <v>0.002380952380952381</v>
+        <v>-7.197549770290965</v>
       </c>
       <c r="AP17">
-        <v>16.45631067961165</v>
+        <v>-1.878587196467991</v>
       </c>
       <c r="AQ17">
-        <v>0.002380952380952381</v>
+        <v>-7.197549770290965</v>
       </c>
     </row>
     <row r="18">
@@ -2600,7 +2633,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The Trendlines Group Ltd. (Catalist:42T)</t>
+          <t>GO.D.M Investments Ltd. (TASE:GODM-M)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2608,23 +2641,8 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="G18">
-        <v>1.061674008810573</v>
-      </c>
-      <c r="H18">
-        <v>1.354625550660793</v>
-      </c>
-      <c r="I18">
-        <v>2.73919215738215</v>
-      </c>
-      <c r="J18">
-        <v>2.73919215738215</v>
-      </c>
       <c r="K18">
-        <v>-10.8</v>
-      </c>
-      <c r="L18">
-        <v>2.378854625550661</v>
+        <v>-0.55</v>
       </c>
       <c r="M18">
         <v>-0</v>
@@ -2648,177 +2666,73 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>14</v>
+        <v>1.41</v>
       </c>
       <c r="V18">
-        <v>0.247787610619469</v>
+        <v>0.1128</v>
       </c>
       <c r="W18">
-        <v>-0.1170097508125677</v>
+        <v>-2.534562211981567</v>
       </c>
       <c r="X18">
-        <v>0.05518973241369672</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="Y18">
-        <v>-0.1721994832262644</v>
+        <v>-2.573553906219981</v>
       </c>
       <c r="Z18">
-        <v>-0.04841909419273439</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>-0.1326292030802857</v>
+        <v>-2.672727272727273</v>
       </c>
       <c r="AB18">
-        <v>0.05210850199041597</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="AC18">
-        <v>-0.1847377050707016</v>
+        <v>-2.711718966965687</v>
       </c>
       <c r="AD18">
-        <v>5.82</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>2.374661972574812</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>8.194661972574814</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>-5.805338027425186</v>
+        <v>-1.41</v>
       </c>
       <c r="AH18">
-        <v>0.1266667406972259</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>0.08362355466737775</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <v>-0.1145157655961056</v>
+        <v>-0.127141568981064</v>
       </c>
       <c r="AK18">
-        <v>-0.06911555914494534</v>
+        <v>-23.49999999999998</v>
       </c>
       <c r="AL18">
-        <v>0.459</v>
+        <v>0.001</v>
       </c>
       <c r="AM18">
-        <v>0.459</v>
+        <v>0.001</v>
       </c>
       <c r="AN18">
-        <v>-0.5168279904093774</v>
+        <v>-0</v>
       </c>
       <c r="AO18">
-        <v>-27.23311546840959</v>
+        <v>-441</v>
       </c>
       <c r="AP18">
-        <v>0.5155259770380238</v>
+        <v>3.147321428571428</v>
       </c>
       <c r="AQ18">
-        <v>-27.23311546840959</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Israel</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>GO.D.M Investments Ltd. (TASE:GODM-M)</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="K19">
-        <v>-0.713</v>
-      </c>
-      <c r="M19">
-        <v>-0</v>
-      </c>
-      <c r="N19">
-        <v>-0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>-0</v>
-      </c>
-      <c r="Q19">
-        <v>-0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0.052</v>
-      </c>
-      <c r="V19">
-        <v>0.01699346405228758</v>
-      </c>
-      <c r="W19">
-        <v>-0.9271781534460337</v>
-      </c>
-      <c r="X19">
-        <v>0.05157419919816474</v>
-      </c>
-      <c r="Y19">
-        <v>-0.9787523526441985</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>-0.52</v>
-      </c>
-      <c r="AB19">
-        <v>0.05157419919816474</v>
-      </c>
-      <c r="AC19">
-        <v>-0.5715741991981648</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>-0.052</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>-0.01728723404255319</v>
-      </c>
-      <c r="AK19">
-        <v>-0.3151515151515151</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>-0</v>
-      </c>
-      <c r="AP19">
-        <v>0.1710526315789474</v>
+        <v>-441</v>
       </c>
     </row>
   </sheetData>
